--- a/biology/Zoologie/Caria_(genre)/Caria_(genre).xlsx
+++ b/biology/Zoologie/Caria_(genre)/Caria_(genre).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Caria est un genre de papillons de la famille des Riodinidae et de la sous-famille des Riodininae. Ces espèces se rencontrent dans le Sud de l'Amérique du Nord et en Amérique du Sud.
 </t>
@@ -511,7 +523,9 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre a été nommé par Jacob Hübner en 1823.
 </t>
@@ -542,21 +556,23 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Caria castalia (Ménétriés, 1855) ; présent au Brésil et au Pérou
 Caria chrysame (Hewitson, 1874) ; présent en Bolivie et au Pérou
 Caria domitianus (Fabricius, 1793) ; présent au Mexique, au Guatemala, au Venezuela, en Colombie et à Trinité-et-Tobago
-Caria ino Godman &amp; Salvin, [1886] ; présent au Mexique
+Caria ino Godman &amp; Salvin,  ; présent au Mexique
 Caria mantinea (C. &amp; R. Felder, 1861) ; présent au Mexique, au Panama, en Bolivie, en Équateur et au Pérou
 Caria marsyas Godman, 1903 ; présent au Paraguay et au Brésil
 Caria melino Dyar, 1912 ; présent au Mexique
 Caria plutargus (Fabricius, 1793) ; au Brésil
 Caria rhacotis (Godman &amp; Salvin, 1878) ; présent au Honduras, au Guatemala, au Panama, en Colombie et au Pérou
-Caria sponsa (Staudinger, [1887]) ; au Pérou
+Caria sponsa (Staudinger, ) ; au Pérou
 Caria stillaticia Dyar, 1912 ; présent au Mexique
 Caria tabrenthia Schaus, 1902 ; en Bolivie et au Pérou
-Caria trochilus Erichson, [1849] ; présent en Guyane, au Guyana, au Brésil et au Pérou
+Caria trochilus Erichson,  ; présent en Guyane, au Guyana, au Brésil et au Pérou
 Caria sp. ; en Équateur</t>
         </is>
       </c>
